--- a/data/pca/factorExposure/factorExposure_2016-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01072467225854415</v>
+        <v>-0.01544384695716233</v>
       </c>
       <c r="C2">
-        <v>0.05752414525611728</v>
+        <v>0.03957248381035705</v>
       </c>
       <c r="D2">
-        <v>0.02623271091117971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07112296129293511</v>
+      </c>
+      <c r="E2">
+        <v>0.1287295371071324</v>
+      </c>
+      <c r="F2">
+        <v>0.03951287807684013</v>
+      </c>
+      <c r="G2">
+        <v>-0.004042905970176713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04115915984427108</v>
+        <v>-0.02559093254996815</v>
       </c>
       <c r="C3">
-        <v>0.1260039569923601</v>
+        <v>0.06892407345013718</v>
       </c>
       <c r="D3">
-        <v>0.0435055754475647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0724082299422962</v>
+      </c>
+      <c r="E3">
+        <v>0.0836906559503318</v>
+      </c>
+      <c r="F3">
+        <v>-0.05932453804695288</v>
+      </c>
+      <c r="G3">
+        <v>-0.08844339398923326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06304639882810519</v>
+        <v>-0.06251410330753192</v>
       </c>
       <c r="C4">
-        <v>0.06591297094499615</v>
+        <v>0.06431995998933014</v>
       </c>
       <c r="D4">
-        <v>0.01439210827702068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0645503153915121</v>
+      </c>
+      <c r="E4">
+        <v>0.1197645216784351</v>
+      </c>
+      <c r="F4">
+        <v>-0.02208917442677392</v>
+      </c>
+      <c r="G4">
+        <v>0.03607304964372059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04177102302704891</v>
+        <v>-0.03886413896768057</v>
       </c>
       <c r="C6">
-        <v>0.03591287546964201</v>
+        <v>0.02689676086811084</v>
       </c>
       <c r="D6">
-        <v>0.0164131351522454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07137464782403387</v>
+      </c>
+      <c r="E6">
+        <v>0.1081576470128</v>
+      </c>
+      <c r="F6">
+        <v>-0.02392216907945335</v>
+      </c>
+      <c r="G6">
+        <v>-0.00265566823363285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0291278977934856</v>
+        <v>-0.02238240419607695</v>
       </c>
       <c r="C7">
-        <v>0.03914446563576535</v>
+        <v>0.03662402811881585</v>
       </c>
       <c r="D7">
-        <v>-0.005828528864296496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05261048683983609</v>
+      </c>
+      <c r="E7">
+        <v>0.09810393184058314</v>
+      </c>
+      <c r="F7">
+        <v>-0.002536295991317989</v>
+      </c>
+      <c r="G7">
+        <v>0.07983576094184533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.009689033660617644</v>
+        <v>-0.00788603559765336</v>
       </c>
       <c r="C8">
-        <v>0.04115490231190187</v>
+        <v>0.03549086475216286</v>
       </c>
       <c r="D8">
-        <v>0.0233641876765557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0451005628056415</v>
+      </c>
+      <c r="E8">
+        <v>0.07327553727405645</v>
+      </c>
+      <c r="F8">
+        <v>-0.01510441228785901</v>
+      </c>
+      <c r="G8">
+        <v>-0.004473135457814329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03863715949738258</v>
+        <v>-0.04238047499703106</v>
       </c>
       <c r="C9">
-        <v>0.04681942444171444</v>
+        <v>0.04976527469350674</v>
       </c>
       <c r="D9">
-        <v>0.01403079057446987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05396454535454444</v>
+      </c>
+      <c r="E9">
+        <v>0.1005016425642213</v>
+      </c>
+      <c r="F9">
+        <v>-0.0052871941978057</v>
+      </c>
+      <c r="G9">
+        <v>0.04624603096967737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07058123616886547</v>
+        <v>-0.09855493942964537</v>
       </c>
       <c r="C10">
-        <v>-0.1874995279241013</v>
+        <v>-0.2008641360352889</v>
       </c>
       <c r="D10">
-        <v>-5.562727530376441e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007782535263338713</v>
+      </c>
+      <c r="E10">
+        <v>0.04633586171143134</v>
+      </c>
+      <c r="F10">
+        <v>-0.006804772304587749</v>
+      </c>
+      <c r="G10">
+        <v>0.02712959726511511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04434225837982719</v>
+        <v>-0.0383520059957499</v>
       </c>
       <c r="C11">
-        <v>0.05011972231656037</v>
+        <v>0.0470558676037569</v>
       </c>
       <c r="D11">
-        <v>0.01407358904485269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0395925371738171</v>
+      </c>
+      <c r="E11">
+        <v>0.04845412816069404</v>
+      </c>
+      <c r="F11">
+        <v>-0.007173611925699322</v>
+      </c>
+      <c r="G11">
+        <v>0.05740234501143274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0466273796227608</v>
+        <v>-0.04031001625965196</v>
       </c>
       <c r="C12">
-        <v>0.04548383523574126</v>
+        <v>0.04495831223997236</v>
       </c>
       <c r="D12">
-        <v>-0.00369478525264152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03330536778463612</v>
+      </c>
+      <c r="E12">
+        <v>0.05825997715642158</v>
+      </c>
+      <c r="F12">
+        <v>-0.004757644450645325</v>
+      </c>
+      <c r="G12">
+        <v>0.05118249329784481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01627585143485989</v>
+        <v>-0.0155962502930977</v>
       </c>
       <c r="C13">
-        <v>0.0537739854904481</v>
+        <v>0.04173952125460749</v>
       </c>
       <c r="D13">
-        <v>-0.001179080669643487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06036287119961582</v>
+      </c>
+      <c r="E13">
+        <v>0.1366761174651637</v>
+      </c>
+      <c r="F13">
+        <v>-0.01407086322506639</v>
+      </c>
+      <c r="G13">
+        <v>0.04777051088286578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01130523523076141</v>
+        <v>-0.00724794917240246</v>
       </c>
       <c r="C14">
-        <v>0.03477318575923057</v>
+        <v>0.02968718821715984</v>
       </c>
       <c r="D14">
-        <v>-0.003680961443419519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03872889432634478</v>
+      </c>
+      <c r="E14">
+        <v>0.0904459525505406</v>
+      </c>
+      <c r="F14">
+        <v>0.01487959760328783</v>
+      </c>
+      <c r="G14">
+        <v>0.05298954229848613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00021663340049685</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006599361700275919</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01073189007171842</v>
+      </c>
+      <c r="E15">
+        <v>0.01090625520505135</v>
+      </c>
+      <c r="F15">
+        <v>0.001010789128959717</v>
+      </c>
+      <c r="G15">
+        <v>0.002067308279173891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04197861357494539</v>
+        <v>-0.03664311806743102</v>
       </c>
       <c r="C16">
-        <v>0.04716822925986475</v>
+        <v>0.04400095281539231</v>
       </c>
       <c r="D16">
-        <v>-0.0008985925711952911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03329853068903712</v>
+      </c>
+      <c r="E16">
+        <v>0.06271850758553142</v>
+      </c>
+      <c r="F16">
+        <v>0.008204958022643599</v>
+      </c>
+      <c r="G16">
+        <v>0.04714633609033102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02638691216951133</v>
+        <v>-0.01933895124756248</v>
       </c>
       <c r="C19">
-        <v>0.06157978475810533</v>
+        <v>0.04461474279266549</v>
       </c>
       <c r="D19">
-        <v>0.05477256118430839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.092059792902667</v>
+      </c>
+      <c r="E19">
+        <v>0.1301264658587125</v>
+      </c>
+      <c r="F19">
+        <v>0.01693507691272763</v>
+      </c>
+      <c r="G19">
+        <v>0.0007394032787398967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02096078028231872</v>
+        <v>-0.01701795602202874</v>
       </c>
       <c r="C20">
-        <v>0.0484025800525258</v>
+        <v>0.0392001323274564</v>
       </c>
       <c r="D20">
-        <v>-0.001464438306454418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04533856076359213</v>
+      </c>
+      <c r="E20">
+        <v>0.1060504365657881</v>
+      </c>
+      <c r="F20">
+        <v>0.000572937310445574</v>
+      </c>
+      <c r="G20">
+        <v>0.02846615176755729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0168998761129097</v>
+        <v>-0.01500637752577652</v>
       </c>
       <c r="C21">
-        <v>0.0542714523889485</v>
+        <v>0.04321957837603475</v>
       </c>
       <c r="D21">
-        <v>0.01799329151939334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07204849799768984</v>
+      </c>
+      <c r="E21">
+        <v>0.1579896085248439</v>
+      </c>
+      <c r="F21">
+        <v>0.01410707445435707</v>
+      </c>
+      <c r="G21">
+        <v>0.06411353722638381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006511324046550688</v>
+        <v>-0.004807203110463081</v>
       </c>
       <c r="C22">
-        <v>0.01317331433534516</v>
+        <v>0.02944745698241452</v>
       </c>
       <c r="D22">
-        <v>0.02312258070857061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06140684507744339</v>
+      </c>
+      <c r="E22">
+        <v>0.07735437589885405</v>
+      </c>
+      <c r="F22">
+        <v>-0.0598804052989839</v>
+      </c>
+      <c r="G22">
+        <v>-0.03136629959043955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.000650205115518182</v>
+        <v>-0.004934497801452673</v>
       </c>
       <c r="C23">
-        <v>0.0131729649163254</v>
+        <v>0.02941287161191126</v>
       </c>
       <c r="D23">
-        <v>0.02304899218444849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06063751045235435</v>
+      </c>
+      <c r="E23">
+        <v>0.07748543047699068</v>
+      </c>
+      <c r="F23">
+        <v>-0.05991087763273755</v>
+      </c>
+      <c r="G23">
+        <v>-0.03096931567793073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03918763188622811</v>
+        <v>-0.03771517920885727</v>
       </c>
       <c r="C24">
-        <v>0.04822245169949008</v>
+        <v>0.05220246775277352</v>
       </c>
       <c r="D24">
-        <v>0.005400241344193609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03511024968766514</v>
+      </c>
+      <c r="E24">
+        <v>0.06785919310187974</v>
+      </c>
+      <c r="F24">
+        <v>0.004234189713499208</v>
+      </c>
+      <c r="G24">
+        <v>0.06114885472533687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05004835628142476</v>
+        <v>-0.0448194266545842</v>
       </c>
       <c r="C25">
-        <v>0.05767830713416357</v>
+        <v>0.05497405506940474</v>
       </c>
       <c r="D25">
-        <v>-0.002223374889090756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03202134493308084</v>
+      </c>
+      <c r="E25">
+        <v>0.05998410429212937</v>
+      </c>
+      <c r="F25">
+        <v>-0.008966846684024758</v>
+      </c>
+      <c r="G25">
+        <v>0.06847787197363986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01999539541133669</v>
+        <v>-0.01785382323062423</v>
       </c>
       <c r="C26">
-        <v>0.01495675225293027</v>
+        <v>0.01626768486977643</v>
       </c>
       <c r="D26">
-        <v>0.00679433952708213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03528241454886514</v>
+      </c>
+      <c r="E26">
+        <v>0.07230145304947408</v>
+      </c>
+      <c r="F26">
+        <v>0.01362187203621958</v>
+      </c>
+      <c r="G26">
+        <v>0.02523307040697298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08938161300159525</v>
+        <v>-0.1362443076285905</v>
       </c>
       <c r="C28">
-        <v>-0.2601843897146158</v>
+        <v>-0.2613839763538206</v>
       </c>
       <c r="D28">
-        <v>-0.005868951809875453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02493327077553108</v>
+      </c>
+      <c r="E28">
+        <v>0.06382873689757972</v>
+      </c>
+      <c r="F28">
+        <v>-0.00738768467084648</v>
+      </c>
+      <c r="G28">
+        <v>0.05804619889428178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009794085925086935</v>
+        <v>-0.007703702233730188</v>
       </c>
       <c r="C29">
-        <v>0.03109535695227559</v>
+        <v>0.02799885657752592</v>
       </c>
       <c r="D29">
-        <v>-0.009687115809199114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03072721521105233</v>
+      </c>
+      <c r="E29">
+        <v>0.08689319217585451</v>
+      </c>
+      <c r="F29">
+        <v>0.005225584402222977</v>
+      </c>
+      <c r="G29">
+        <v>0.05498708813165437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04729856881885467</v>
+        <v>-0.04613457160121804</v>
       </c>
       <c r="C30">
-        <v>0.05123169628566773</v>
+        <v>0.05683834521085903</v>
       </c>
       <c r="D30">
-        <v>0.07108100143466836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1162180691051306</v>
+      </c>
+      <c r="E30">
+        <v>0.1135361700670006</v>
+      </c>
+      <c r="F30">
+        <v>0.004865725587111287</v>
+      </c>
+      <c r="G30">
+        <v>-0.003816938487741816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06399949057827219</v>
+        <v>-0.06179234805260306</v>
       </c>
       <c r="C31">
-        <v>0.04448499354040087</v>
+        <v>0.05965116636834383</v>
       </c>
       <c r="D31">
-        <v>-0.04755262512211009</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.005795928821241358</v>
+      </c>
+      <c r="E31">
+        <v>0.09023581756290358</v>
+      </c>
+      <c r="F31">
+        <v>-0.02993333467591599</v>
+      </c>
+      <c r="G31">
+        <v>0.03419446193966351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006885547571027722</v>
+        <v>-0.01128001398466664</v>
       </c>
       <c r="C32">
-        <v>0.03788903477193797</v>
+        <v>0.03383506441140406</v>
       </c>
       <c r="D32">
-        <v>0.05441307593127555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06529897296128083</v>
+      </c>
+      <c r="E32">
+        <v>0.08026243888681434</v>
+      </c>
+      <c r="F32">
+        <v>0.01737627455508391</v>
+      </c>
+      <c r="G32">
+        <v>0.05620873876722011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03559035500664667</v>
+        <v>-0.02912977921310642</v>
       </c>
       <c r="C33">
-        <v>0.05873687737170224</v>
+        <v>0.05198638060921346</v>
       </c>
       <c r="D33">
-        <v>0.03397393748551379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08302821134839812</v>
+      </c>
+      <c r="E33">
+        <v>0.1211436256529519</v>
+      </c>
+      <c r="F33">
+        <v>-0.01125349549086926</v>
+      </c>
+      <c r="G33">
+        <v>0.05653423125708644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04516825309295307</v>
+        <v>-0.04085295828173142</v>
       </c>
       <c r="C34">
-        <v>0.06295763885242683</v>
+        <v>0.06199320284101566</v>
       </c>
       <c r="D34">
-        <v>0.02085405444301046</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04373188848226346</v>
+      </c>
+      <c r="E34">
+        <v>0.0472974358384628</v>
+      </c>
+      <c r="F34">
+        <v>0.003129363592418924</v>
+      </c>
+      <c r="G34">
+        <v>0.07016282713896833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.257739314972477e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-9.453428842464186e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-2.485999502043479e-05</v>
+      </c>
+      <c r="E35">
+        <v>-8.146063873316068e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0001299470027125786</v>
+      </c>
+      <c r="G35">
+        <v>-6.698403054712725e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01905274378634349</v>
+        <v>-0.01671266510885084</v>
       </c>
       <c r="C36">
-        <v>0.01608669332724516</v>
+        <v>0.0127964298741104</v>
       </c>
       <c r="D36">
-        <v>-0.002941142150476584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03425751867875038</v>
+      </c>
+      <c r="E36">
+        <v>0.08183870348675519</v>
+      </c>
+      <c r="F36">
+        <v>-0.0005206791720605425</v>
+      </c>
+      <c r="G36">
+        <v>0.04168830460782066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03111586175389851</v>
+        <v>-0.024219538791466</v>
       </c>
       <c r="C38">
-        <v>0.03234293731056326</v>
+        <v>0.02452745677907033</v>
       </c>
       <c r="D38">
-        <v>-0.01714736979947261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02820123863623605</v>
+      </c>
+      <c r="E38">
+        <v>0.07330581917899673</v>
+      </c>
+      <c r="F38">
+        <v>-0.001820948499851577</v>
+      </c>
+      <c r="G38">
+        <v>-0.0001070429982425135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05004487214132304</v>
+        <v>-0.04358257801049054</v>
       </c>
       <c r="C39">
-        <v>0.05869526424761896</v>
+        <v>0.06089146026070998</v>
       </c>
       <c r="D39">
-        <v>0.01695438535448826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06292561049239163</v>
+      </c>
+      <c r="E39">
+        <v>0.08265376080462576</v>
+      </c>
+      <c r="F39">
+        <v>0.02173006121194606</v>
+      </c>
+      <c r="G39">
+        <v>0.05010437348897407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01278803026962581</v>
+        <v>-0.015358539825386</v>
       </c>
       <c r="C40">
-        <v>0.05375261220099954</v>
+        <v>0.03926065479147332</v>
       </c>
       <c r="D40">
-        <v>-0.006290121338789263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03789075323547423</v>
+      </c>
+      <c r="E40">
+        <v>0.1192907234163341</v>
+      </c>
+      <c r="F40">
+        <v>-0.02703763671247639</v>
+      </c>
+      <c r="G40">
+        <v>0.04782813321629813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02460602399180867</v>
+        <v>-0.0210731548286513</v>
       </c>
       <c r="C41">
-        <v>0.01372697128489151</v>
+        <v>0.009709175856901134</v>
       </c>
       <c r="D41">
-        <v>-0.006341106757144834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02215312636992531</v>
+      </c>
+      <c r="E41">
+        <v>0.07924183403803894</v>
+      </c>
+      <c r="F41">
+        <v>0.0004767296132697086</v>
+      </c>
+      <c r="G41">
+        <v>0.02877044971828323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0469095513197065</v>
+        <v>-0.03289953733231529</v>
       </c>
       <c r="C43">
-        <v>0.03291540384221102</v>
+        <v>0.0238743120089962</v>
       </c>
       <c r="D43">
-        <v>0.003808729111422101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04898914869149423</v>
+      </c>
+      <c r="E43">
+        <v>0.09485478046321875</v>
+      </c>
+      <c r="F43">
+        <v>-0.02001961988800043</v>
+      </c>
+      <c r="G43">
+        <v>0.04723740810810028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01930123978355248</v>
+        <v>-0.01982286778660302</v>
       </c>
       <c r="C44">
-        <v>0.06928988559865777</v>
+        <v>0.04852404270042578</v>
       </c>
       <c r="D44">
-        <v>-0.0132186901098026</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03974635302118664</v>
+      </c>
+      <c r="E44">
+        <v>0.1133322233389233</v>
+      </c>
+      <c r="F44">
+        <v>0.01216063636842319</v>
+      </c>
+      <c r="G44">
+        <v>0.03169546147795481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01367787509836515</v>
+        <v>-0.01272758064557962</v>
       </c>
       <c r="C46">
-        <v>0.02566609069945584</v>
+        <v>0.02879887333118372</v>
       </c>
       <c r="D46">
-        <v>-0.01798206528769622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02519009714258614</v>
+      </c>
+      <c r="E46">
+        <v>0.09628012645938779</v>
+      </c>
+      <c r="F46">
+        <v>0.0162388562983112</v>
+      </c>
+      <c r="G46">
+        <v>0.06952017256826504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09186551819247743</v>
+        <v>-0.09347016342747499</v>
       </c>
       <c r="C47">
-        <v>0.06588071084372053</v>
+        <v>0.07920381256621566</v>
       </c>
       <c r="D47">
-        <v>-0.05291012413529945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01804012484706181</v>
+      </c>
+      <c r="E47">
+        <v>0.07812953203294622</v>
+      </c>
+      <c r="F47">
+        <v>-0.02172782803073502</v>
+      </c>
+      <c r="G47">
+        <v>0.06512950293128669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02066345160476069</v>
+        <v>-0.01928713557920788</v>
       </c>
       <c r="C48">
-        <v>0.01205555293004765</v>
+        <v>0.01442548398157844</v>
       </c>
       <c r="D48">
-        <v>-0.02190351757261248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02049074608603456</v>
+      </c>
+      <c r="E48">
+        <v>0.09871294122335128</v>
+      </c>
+      <c r="F48">
+        <v>0.006703629331783882</v>
+      </c>
+      <c r="G48">
+        <v>0.04911230128394618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08584714991998293</v>
+        <v>-0.07379703209062351</v>
       </c>
       <c r="C50">
-        <v>0.08124822840614696</v>
+        <v>0.07341568445132152</v>
       </c>
       <c r="D50">
-        <v>-0.05796090645842172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001430323332149668</v>
+      </c>
+      <c r="E50">
+        <v>0.09065331072040353</v>
+      </c>
+      <c r="F50">
+        <v>-0.05619757556586696</v>
+      </c>
+      <c r="G50">
+        <v>0.03139996117190134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01498128576571304</v>
+        <v>-0.01128634225160786</v>
       </c>
       <c r="C51">
-        <v>0.04971421332923167</v>
+        <v>0.03134173621080816</v>
       </c>
       <c r="D51">
-        <v>0.04266455231545441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06856977227841114</v>
+      </c>
+      <c r="E51">
+        <v>0.08684656075685104</v>
+      </c>
+      <c r="F51">
+        <v>0.01373134330255948</v>
+      </c>
+      <c r="G51">
+        <v>0.02617973659850101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08454180474261816</v>
+        <v>-0.09918596286163742</v>
       </c>
       <c r="C53">
-        <v>0.07862026913241997</v>
+        <v>0.084568656802864</v>
       </c>
       <c r="D53">
-        <v>-0.06974600753813687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05580668220644731</v>
+      </c>
+      <c r="E53">
+        <v>0.0863203343154729</v>
+      </c>
+      <c r="F53">
+        <v>-0.01833542134454024</v>
+      </c>
+      <c r="G53">
+        <v>0.06356683541335072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03834068150233102</v>
+        <v>-0.03139217900850051</v>
       </c>
       <c r="C54">
-        <v>0.03235705399286125</v>
+        <v>0.03048005621922126</v>
       </c>
       <c r="D54">
-        <v>0.0006431676534978456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03913346160809295</v>
+      </c>
+      <c r="E54">
+        <v>0.09013091860429552</v>
+      </c>
+      <c r="F54">
+        <v>0.006904933734832175</v>
+      </c>
+      <c r="G54">
+        <v>0.05820927999858157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08240387634223729</v>
+        <v>-0.09170999407475869</v>
       </c>
       <c r="C55">
-        <v>0.05176283167386458</v>
+        <v>0.0659930511336992</v>
       </c>
       <c r="D55">
-        <v>-0.06809139008613377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05416922414777805</v>
+      </c>
+      <c r="E55">
+        <v>0.05670323919296644</v>
+      </c>
+      <c r="F55">
+        <v>-0.02825578738069062</v>
+      </c>
+      <c r="G55">
+        <v>0.02883148444432653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1535298979388126</v>
+        <v>-0.1564099615548623</v>
       </c>
       <c r="C56">
-        <v>0.08062225161031328</v>
+        <v>0.09915921426444547</v>
       </c>
       <c r="D56">
-        <v>-0.06900789685178785</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05712890422092775</v>
+      </c>
+      <c r="E56">
+        <v>0.03482099256910873</v>
+      </c>
+      <c r="F56">
+        <v>-0.01408445035561488</v>
+      </c>
+      <c r="G56">
+        <v>0.04149860981882263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05170719491460651</v>
+        <v>-0.03728609770161968</v>
       </c>
       <c r="C58">
-        <v>0.003729396783359915</v>
+        <v>0.01396986905551909</v>
       </c>
       <c r="D58">
-        <v>0.1445056055233927</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2562014643417639</v>
+      </c>
+      <c r="E58">
+        <v>0.3575845554117438</v>
+      </c>
+      <c r="F58">
+        <v>-0.1735391946990921</v>
+      </c>
+      <c r="G58">
+        <v>-0.6176819511930279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1231849475862428</v>
+        <v>-0.1403006199096093</v>
       </c>
       <c r="C59">
-        <v>-0.2080116715869782</v>
+        <v>-0.1942271790272291</v>
       </c>
       <c r="D59">
-        <v>0.02507964177923271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0328913887014395</v>
+      </c>
+      <c r="E59">
+        <v>0.03510392463618604</v>
+      </c>
+      <c r="F59">
+        <v>0.02435290051299399</v>
+      </c>
+      <c r="G59">
+        <v>-0.01413238762029557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2939571529151924</v>
+        <v>-0.2666039269203146</v>
       </c>
       <c r="C60">
-        <v>0.1041286385875328</v>
+        <v>0.09580660148899472</v>
       </c>
       <c r="D60">
-        <v>0.2742449564136247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2482428651482119</v>
+      </c>
+      <c r="E60">
+        <v>-0.2385383547006538</v>
+      </c>
+      <c r="F60">
+        <v>-0.09242234253476682</v>
+      </c>
+      <c r="G60">
+        <v>0.01158881839699249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04849841041113833</v>
+        <v>-0.04475450668964334</v>
       </c>
       <c r="C61">
-        <v>0.05645938041856824</v>
+        <v>0.05614557441356587</v>
       </c>
       <c r="D61">
-        <v>0.01476600587538949</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05153664701430685</v>
+      </c>
+      <c r="E61">
+        <v>0.07700288167704547</v>
+      </c>
+      <c r="F61">
+        <v>2.08407015610844e-05</v>
+      </c>
+      <c r="G61">
+        <v>0.06335505853890386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0192219415052357</v>
+        <v>-0.01872282262951903</v>
       </c>
       <c r="C63">
-        <v>0.03417650936189066</v>
+        <v>0.03036640316468285</v>
       </c>
       <c r="D63">
-        <v>-0.02369568743066752</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02586978832496543</v>
+      </c>
+      <c r="E63">
+        <v>0.09095932635948407</v>
+      </c>
+      <c r="F63">
+        <v>-0.01828519940149122</v>
+      </c>
+      <c r="G63">
+        <v>0.02723403588691899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05395336305635616</v>
+        <v>-0.05892048539628565</v>
       </c>
       <c r="C64">
-        <v>0.04829025461648995</v>
+        <v>0.05811574694753039</v>
       </c>
       <c r="D64">
-        <v>-8.019074268863473e-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01627702265413898</v>
+      </c>
+      <c r="E64">
+        <v>0.06057425656599014</v>
+      </c>
+      <c r="F64">
+        <v>0.01641919175105074</v>
+      </c>
+      <c r="G64">
+        <v>0.07803084914984279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07845378684197302</v>
+        <v>-0.06470281656929715</v>
       </c>
       <c r="C65">
-        <v>0.02563309694866339</v>
+        <v>0.02565802605038185</v>
       </c>
       <c r="D65">
-        <v>0.04559917564027163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09206098896410958</v>
+      </c>
+      <c r="E65">
+        <v>0.06396511163582216</v>
+      </c>
+      <c r="F65">
+        <v>-0.02855791608391375</v>
+      </c>
+      <c r="G65">
+        <v>-0.0634185295795674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06331667987459014</v>
+        <v>-0.05533681328811173</v>
       </c>
       <c r="C66">
-        <v>0.07822608555259118</v>
+        <v>0.07635641356271819</v>
       </c>
       <c r="D66">
-        <v>0.03408850533957449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08556050522839914</v>
+      </c>
+      <c r="E66">
+        <v>0.09528688547924966</v>
+      </c>
+      <c r="F66">
+        <v>0.003303894199598773</v>
+      </c>
+      <c r="G66">
+        <v>0.04844225490247838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05070862794210665</v>
+        <v>-0.04354261189669802</v>
       </c>
       <c r="C67">
-        <v>0.03256353881907738</v>
+        <v>0.02895803331955688</v>
       </c>
       <c r="D67">
-        <v>-0.024551092010379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007664278810205111</v>
+      </c>
+      <c r="E67">
+        <v>0.04556345733523516</v>
+      </c>
+      <c r="F67">
+        <v>-0.003424925376233149</v>
+      </c>
+      <c r="G67">
+        <v>0.00678874709535031</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1226268054772508</v>
+        <v>-0.1466369174953227</v>
       </c>
       <c r="C68">
-        <v>-0.2815465718656578</v>
+        <v>-0.2438030142212175</v>
       </c>
       <c r="D68">
-        <v>-0.009784722950842494</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008764263989683201</v>
+      </c>
+      <c r="E68">
+        <v>0.05201825236180557</v>
+      </c>
+      <c r="F68">
+        <v>-0.0142852038903086</v>
+      </c>
+      <c r="G68">
+        <v>-0.01140918400771626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09363694398048868</v>
+        <v>-0.09019840246984603</v>
       </c>
       <c r="C69">
-        <v>0.07188031974466037</v>
+        <v>0.08898170367448459</v>
       </c>
       <c r="D69">
-        <v>-0.04697983932867283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004354089558634721</v>
+      </c>
+      <c r="E69">
+        <v>0.07725126846846968</v>
+      </c>
+      <c r="F69">
+        <v>0.008449030724784583</v>
+      </c>
+      <c r="G69">
+        <v>0.07894171317469661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1135398095646438</v>
+        <v>-0.141957519871467</v>
       </c>
       <c r="C71">
-        <v>-0.2603635457901216</v>
+        <v>-0.2455409669535872</v>
       </c>
       <c r="D71">
-        <v>0.003482623784146126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.007982674556593379</v>
+      </c>
+      <c r="E71">
+        <v>0.07275406370913422</v>
+      </c>
+      <c r="F71">
+        <v>-0.03161615349920628</v>
+      </c>
+      <c r="G71">
+        <v>0.03697550184413473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1010705569233162</v>
+        <v>-0.106334256437121</v>
       </c>
       <c r="C72">
-        <v>0.0438889065181827</v>
+        <v>0.048326577306989</v>
       </c>
       <c r="D72">
-        <v>0.01194598210938883</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05252886702801404</v>
+      </c>
+      <c r="E72">
+        <v>0.05109532514182651</v>
+      </c>
+      <c r="F72">
+        <v>-0.03068834939316738</v>
+      </c>
+      <c r="G72">
+        <v>0.05660702917895408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3790778818865428</v>
+        <v>-0.3217474470689944</v>
       </c>
       <c r="C73">
-        <v>0.05685632643260891</v>
+        <v>0.07029928120349535</v>
       </c>
       <c r="D73">
-        <v>0.6047648518254349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5125029503712083</v>
+      </c>
+      <c r="E73">
+        <v>-0.4962296938493297</v>
+      </c>
+      <c r="F73">
+        <v>-0.1805397528381775</v>
+      </c>
+      <c r="G73">
+        <v>-0.01713974060601803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1071991919834814</v>
+        <v>-0.11141544482078</v>
       </c>
       <c r="C74">
-        <v>0.09267793768648397</v>
+        <v>0.09147779641763956</v>
       </c>
       <c r="D74">
-        <v>-0.05661858445085391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0466788667393707</v>
+      </c>
+      <c r="E74">
+        <v>0.06490037817351899</v>
+      </c>
+      <c r="F74">
+        <v>-0.03813237806806239</v>
+      </c>
+      <c r="G74">
+        <v>0.02483671654682953</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2565680895255694</v>
+        <v>-0.2595302000651988</v>
       </c>
       <c r="C75">
-        <v>0.08583695097054088</v>
+        <v>0.1203418839475998</v>
       </c>
       <c r="D75">
-        <v>-0.1600505074963912</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1619131960015021</v>
+      </c>
+      <c r="E75">
+        <v>-0.003209510780127816</v>
+      </c>
+      <c r="F75">
+        <v>-0.01052595266858214</v>
+      </c>
+      <c r="G75">
+        <v>-0.02355467355319279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1179816794189468</v>
+        <v>-0.1305430262551597</v>
       </c>
       <c r="C76">
-        <v>0.07916655837650743</v>
+        <v>0.08984537525850479</v>
       </c>
       <c r="D76">
-        <v>-0.09086392430292323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07833320307248472</v>
+      </c>
+      <c r="E76">
+        <v>0.08599832182635529</v>
+      </c>
+      <c r="F76">
+        <v>-0.0084773362762723</v>
+      </c>
+      <c r="G76">
+        <v>0.02993286108506989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08375179894823059</v>
+        <v>-0.06973459863636927</v>
       </c>
       <c r="C77">
-        <v>0.03718847275940135</v>
+        <v>0.05504932537696024</v>
       </c>
       <c r="D77">
-        <v>0.04214060027449938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07121382463708899</v>
+      </c>
+      <c r="E77">
+        <v>0.12263770026968</v>
+      </c>
+      <c r="F77">
+        <v>0.2048906391676984</v>
+      </c>
+      <c r="G77">
+        <v>-0.1137132322735757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0496643419977427</v>
+        <v>-0.04945999811214285</v>
       </c>
       <c r="C78">
-        <v>0.03963200130662278</v>
+        <v>0.05044235531777948</v>
       </c>
       <c r="D78">
-        <v>0.03837124667842028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07581475799181954</v>
+      </c>
+      <c r="E78">
+        <v>0.08851494007243801</v>
+      </c>
+      <c r="F78">
+        <v>0.00712705155941987</v>
+      </c>
+      <c r="G78">
+        <v>0.04608280230317344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001056920061004318</v>
+        <v>-0.03552955127187069</v>
       </c>
       <c r="C79">
-        <v>0.001457003720947219</v>
+        <v>0.04956462694509314</v>
       </c>
       <c r="D79">
-        <v>0.00364813341371767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.09066653678452956</v>
+      </c>
+      <c r="E79">
+        <v>0.0682172908914935</v>
+      </c>
+      <c r="F79">
+        <v>-0.03782685294877888</v>
+      </c>
+      <c r="G79">
+        <v>0.114156403837817</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03948953885089498</v>
+        <v>-0.03050612616049615</v>
       </c>
       <c r="C80">
-        <v>0.04970669326372237</v>
+        <v>0.05016187831329867</v>
       </c>
       <c r="D80">
-        <v>0.03282255182057031</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0448815928048719</v>
+      </c>
+      <c r="E80">
+        <v>0.02429522739409378</v>
+      </c>
+      <c r="F80">
+        <v>0.04253096379576341</v>
+      </c>
+      <c r="G80">
+        <v>0.004655077889974341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.145926587813963</v>
+        <v>-0.1437385234304096</v>
       </c>
       <c r="C81">
-        <v>0.06708901499931509</v>
+        <v>0.08798561766022688</v>
       </c>
       <c r="D81">
-        <v>-0.1374052002549833</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.128602162471735</v>
+      </c>
+      <c r="E81">
+        <v>0.05055805197458439</v>
+      </c>
+      <c r="F81">
+        <v>-0.01047601653169116</v>
+      </c>
+      <c r="G81">
+        <v>0.004068103225008027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2087035296002508</v>
+        <v>-0.2350085638929377</v>
       </c>
       <c r="C82">
-        <v>0.09001030327456752</v>
+        <v>0.1563489553058261</v>
       </c>
       <c r="D82">
-        <v>-0.1719069804238169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2434488971955696</v>
+      </c>
+      <c r="E82">
+        <v>-0.05213805469437091</v>
+      </c>
+      <c r="F82">
+        <v>0.0391214340207874</v>
+      </c>
+      <c r="G82">
+        <v>0.3890922736598794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04379014451929807</v>
+        <v>-0.02987360480625011</v>
       </c>
       <c r="C83">
-        <v>0.03557103333834618</v>
+        <v>0.04690763929721262</v>
       </c>
       <c r="D83">
-        <v>0.04379581928786351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03630927900147252</v>
+      </c>
+      <c r="E83">
+        <v>0.02960244509208736</v>
+      </c>
+      <c r="F83">
+        <v>0.02495865370815573</v>
+      </c>
+      <c r="G83">
+        <v>-0.006240586979747975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0003277199661926323</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001613964983429725</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0009087588164216598</v>
+      </c>
+      <c r="E84">
+        <v>0.006266691049745103</v>
+      </c>
+      <c r="F84">
+        <v>-0.001851592386794722</v>
+      </c>
+      <c r="G84">
+        <v>-0.00488930066793019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2176619310773654</v>
+        <v>-0.2023607086402072</v>
       </c>
       <c r="C85">
-        <v>0.09925695115832282</v>
+        <v>0.1133730528273414</v>
       </c>
       <c r="D85">
-        <v>-0.1695565511946511</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.139930170885697</v>
+      </c>
+      <c r="E85">
+        <v>-0.02773816061661178</v>
+      </c>
+      <c r="F85">
+        <v>-0.08025448374036452</v>
+      </c>
+      <c r="G85">
+        <v>-0.01596396790791288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01171058788707476</v>
+        <v>-0.0154043133345339</v>
       </c>
       <c r="C86">
-        <v>0.02964419796449212</v>
+        <v>0.01639019877041211</v>
       </c>
       <c r="D86">
-        <v>0.03301958214979638</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07549136888353188</v>
+      </c>
+      <c r="E86">
+        <v>0.1055465324211763</v>
+      </c>
+      <c r="F86">
+        <v>0.02039152326986234</v>
+      </c>
+      <c r="G86">
+        <v>0.06729367496661648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03273676370610949</v>
+        <v>-0.03262704506855246</v>
       </c>
       <c r="C87">
-        <v>0.0008243122363306624</v>
+        <v>0.01194738633792505</v>
       </c>
       <c r="D87">
-        <v>0.04515263902113889</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09018684483611571</v>
+      </c>
+      <c r="E87">
+        <v>0.1455870496953027</v>
+      </c>
+      <c r="F87">
+        <v>0.05164883280740551</v>
+      </c>
+      <c r="G87">
+        <v>-0.02761502969353291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1117848955542447</v>
+        <v>-0.09434850458836934</v>
       </c>
       <c r="C88">
-        <v>0.08389857481577906</v>
+        <v>0.06819205071505983</v>
       </c>
       <c r="D88">
-        <v>-0.02146134640272522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.015597207322244</v>
+      </c>
+      <c r="E88">
+        <v>0.05517061643081632</v>
+      </c>
+      <c r="F88">
+        <v>0.01684575697716057</v>
+      </c>
+      <c r="G88">
+        <v>0.04215822709689413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1753225098926921</v>
+        <v>-0.2122069565836221</v>
       </c>
       <c r="C89">
-        <v>-0.3826511777317466</v>
+        <v>-0.3848152632164766</v>
       </c>
       <c r="D89">
-        <v>-0.03994717326575786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01422162393454041</v>
+      </c>
+      <c r="E89">
+        <v>0.08311469432781264</v>
+      </c>
+      <c r="F89">
+        <v>0.07136255098115568</v>
+      </c>
+      <c r="G89">
+        <v>0.02109597510137795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1679653341594701</v>
+        <v>-0.1931399507974163</v>
       </c>
       <c r="C90">
-        <v>-0.3341610662936032</v>
+        <v>-0.3117997547828596</v>
       </c>
       <c r="D90">
-        <v>-0.04359760322962426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0127453729142454</v>
+      </c>
+      <c r="E90">
+        <v>0.06250132705807684</v>
+      </c>
+      <c r="F90">
+        <v>0.00372575012480365</v>
+      </c>
+      <c r="G90">
+        <v>-0.002416377328458692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1915082372974431</v>
+        <v>-0.1880661001567132</v>
       </c>
       <c r="C91">
-        <v>0.1197094661023301</v>
+        <v>0.1394385349020043</v>
       </c>
       <c r="D91">
-        <v>-0.1463521642057977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1330931248069853</v>
+      </c>
+      <c r="E91">
+        <v>0.04458653682239611</v>
+      </c>
+      <c r="F91">
+        <v>-0.004465312393171862</v>
+      </c>
+      <c r="G91">
+        <v>0.005571471118505729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1612821972399176</v>
+        <v>-0.1791899417883594</v>
       </c>
       <c r="C92">
-        <v>-0.2964577397102403</v>
+        <v>-0.2993103006367949</v>
       </c>
       <c r="D92">
-        <v>-0.03571679983149984</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01337988002118246</v>
+      </c>
+      <c r="E92">
+        <v>0.07089962277637692</v>
+      </c>
+      <c r="F92">
+        <v>0.03356082285014871</v>
+      </c>
+      <c r="G92">
+        <v>0.04484939989706656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1877735026937354</v>
+        <v>-0.2118019044639761</v>
       </c>
       <c r="C93">
-        <v>-0.3381806933609132</v>
+        <v>-0.321475431630655</v>
       </c>
       <c r="D93">
-        <v>-0.06141597080048562</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02373731226636047</v>
+      </c>
+      <c r="E93">
+        <v>0.03919157669396313</v>
+      </c>
+      <c r="F93">
+        <v>-0.02309170330115963</v>
+      </c>
+      <c r="G93">
+        <v>0.04201225012843138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3570804884241157</v>
+        <v>-0.3507085273818909</v>
       </c>
       <c r="C94">
-        <v>0.1222443590646351</v>
+        <v>0.1724180513112285</v>
       </c>
       <c r="D94">
-        <v>-0.4556494062962988</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4309695660419359</v>
+      </c>
+      <c r="E94">
+        <v>-0.1137108599252512</v>
+      </c>
+      <c r="F94">
+        <v>0.09556466309473353</v>
+      </c>
+      <c r="G94">
+        <v>-0.5355386091976765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.119429018645199</v>
+        <v>-0.08891244512160647</v>
       </c>
       <c r="C95">
-        <v>0.03861696902536677</v>
+        <v>0.05021675992253394</v>
       </c>
       <c r="D95">
-        <v>0.2727820793428696</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2196338530107733</v>
+      </c>
+      <c r="E95">
+        <v>-0.07343364558741201</v>
+      </c>
+      <c r="F95">
+        <v>0.9016329277157615</v>
+      </c>
+      <c r="G95">
+        <v>-0.05542247015580963</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1877903778215226</v>
+        <v>-0.1845351457751329</v>
       </c>
       <c r="C98">
-        <v>0.0256002081275256</v>
+        <v>0.04635703172040802</v>
       </c>
       <c r="D98">
-        <v>0.2172574505832698</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2072983529049079</v>
+      </c>
+      <c r="E98">
+        <v>-0.1425002933492697</v>
+      </c>
+      <c r="F98">
+        <v>-0.1104294880804085</v>
+      </c>
+      <c r="G98">
+        <v>0.03809673014001429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009564707231759229</v>
+        <v>-0.007705877564109742</v>
       </c>
       <c r="C101">
-        <v>0.03110951934251276</v>
+        <v>0.02752209564354437</v>
       </c>
       <c r="D101">
-        <v>-0.009635822877723065</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03061301990016901</v>
+      </c>
+      <c r="E101">
+        <v>0.0876897685520116</v>
+      </c>
+      <c r="F101">
+        <v>0.005929500925850682</v>
+      </c>
+      <c r="G101">
+        <v>0.05527589739295229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1221783964646725</v>
+        <v>-0.1258687198427993</v>
       </c>
       <c r="C102">
-        <v>0.06239526360765877</v>
+        <v>0.09715879971566109</v>
       </c>
       <c r="D102">
-        <v>-0.05135202744645027</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.059737025978108</v>
+      </c>
+      <c r="E102">
+        <v>-0.008956407238328698</v>
+      </c>
+      <c r="F102">
+        <v>0.02762190311255919</v>
+      </c>
+      <c r="G102">
+        <v>0.04321524028874386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
